--- a/data/excelsheets/statenotificationscalculations.xlsx
+++ b/data/excelsheets/statenotificationscalculations.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\EpiML\data\excelsheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23955" windowHeight="12840"/>
+    <workbookView xWindow="1056" yWindow="60" windowWidth="23952" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -204,8 +209,1488 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>6560</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7693</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4475</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4036</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4066</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3942</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3227</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2772</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2955</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2866</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2590</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2633</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2647</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2632</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2671</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2407</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5510</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5047</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3433</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2866</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2820</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2612</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2251</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2305</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2367</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2162</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="353614544"/>
+        <c:axId val="353614152"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="353614544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353614152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="353614152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353614544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -251,7 +1736,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,7 +1771,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,16 +1982,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -514,17 +1999,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -559,7 +2044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1995</v>
       </c>
@@ -595,11 +2080,11 @@
         <v>11273</v>
       </c>
       <c r="O5">
-        <f>J5+Z30</f>
+        <f t="shared" ref="O5:O23" si="0">J5+Z30</f>
         <v>15572</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1996</v>
       </c>
@@ -631,15 +2116,15 @@
         <v>16157</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L23" si="0">B6+C6+F6+G6+H6</f>
+        <f t="shared" ref="L6:L23" si="1">B6+C6+F6+G6+H6</f>
         <v>12135</v>
       </c>
       <c r="O6">
-        <f>J6+Z31</f>
+        <f t="shared" si="0"/>
         <v>16257</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1997</v>
       </c>
@@ -671,15 +2156,15 @@
         <v>15019</v>
       </c>
       <c r="L7">
+        <f t="shared" si="1"/>
+        <v>10906</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="0"/>
-        <v>10906</v>
-      </c>
-      <c r="O7">
-        <f>J7+Z32</f>
         <v>15168</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1998</v>
       </c>
@@ -711,15 +2196,15 @@
         <v>17328</v>
       </c>
       <c r="L8">
+        <f t="shared" si="1"/>
+        <v>13123</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="0"/>
-        <v>13123</v>
-      </c>
-      <c r="O8">
-        <f>J8+Z33</f>
         <v>17652</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1999</v>
       </c>
@@ -751,15 +2236,15 @@
         <v>18863</v>
       </c>
       <c r="L9">
+        <f t="shared" si="1"/>
+        <v>14687</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="0"/>
-        <v>14687</v>
-      </c>
-      <c r="O9">
-        <f>J9+Z34</f>
         <v>19204</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2000</v>
       </c>
@@ -791,15 +2276,15 @@
         <v>18613</v>
       </c>
       <c r="L10">
+        <f t="shared" si="1"/>
+        <v>13571</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="0"/>
-        <v>13571</v>
-      </c>
-      <c r="O10">
-        <f>J10+Z35</f>
         <v>19036</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2001</v>
       </c>
@@ -831,15 +2316,15 @@
         <v>17662</v>
       </c>
       <c r="L11">
+        <f t="shared" si="1"/>
+        <v>13303</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="0"/>
-        <v>13303</v>
-      </c>
-      <c r="O11">
-        <f>J11+Z36</f>
         <v>18169</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2002</v>
       </c>
@@ -871,15 +2356,15 @@
         <v>14962</v>
       </c>
       <c r="L12">
+        <f t="shared" si="1"/>
+        <v>10907</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="0"/>
-        <v>10907</v>
-      </c>
-      <c r="O12">
-        <f>J12+Z37</f>
         <v>15264</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2003</v>
       </c>
@@ -911,15 +2396,15 @@
         <v>13240</v>
       </c>
       <c r="L13">
+        <f t="shared" si="1"/>
+        <v>9367</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="0"/>
-        <v>9367</v>
-      </c>
-      <c r="O13">
-        <f>J13+Z38</f>
         <v>13578</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2004</v>
       </c>
@@ -951,15 +2436,15 @@
         <v>12363</v>
       </c>
       <c r="L14">
+        <f t="shared" si="1"/>
+        <v>8442</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="0"/>
-        <v>8442</v>
-      </c>
-      <c r="O14">
-        <f>J14+Z39</f>
         <v>12680</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2005</v>
       </c>
@@ -991,15 +2476,15 @@
         <v>11682</v>
       </c>
       <c r="L15">
+        <f t="shared" si="1"/>
+        <v>7854</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="0"/>
-        <v>7854</v>
-      </c>
-      <c r="O15">
-        <f>J15+Z40</f>
         <v>12068</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2006</v>
       </c>
@@ -1031,15 +2516,15 @@
         <v>11620</v>
       </c>
       <c r="L16">
+        <f t="shared" si="1"/>
+        <v>7533</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="0"/>
-        <v>7533</v>
-      </c>
-      <c r="O16">
-        <f>J16+Z41</f>
         <v>12057</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2007</v>
       </c>
@@ -1071,15 +2556,15 @@
         <v>11726</v>
       </c>
       <c r="L17">
+        <f t="shared" si="1"/>
+        <v>7698</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="0"/>
-        <v>7698</v>
-      </c>
-      <c r="O17">
-        <f>J17+Z42</f>
         <v>12100</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2008</v>
       </c>
@@ -1111,15 +2596,15 @@
         <v>10801</v>
       </c>
       <c r="L18">
+        <f t="shared" si="1"/>
+        <v>6741</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="0"/>
-        <v>6741</v>
-      </c>
-      <c r="O18">
-        <f>J18+Z43</f>
         <v>11165</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2009</v>
       </c>
@@ -1151,15 +2636,15 @@
         <v>11099</v>
       </c>
       <c r="L19">
+        <f t="shared" si="1"/>
+        <v>7259</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="0"/>
-        <v>7259</v>
-      </c>
-      <c r="O19">
-        <f>J19+Z44</f>
         <v>11498</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2010</v>
       </c>
@@ -1191,15 +2676,15 @@
         <v>11083</v>
       </c>
       <c r="L20">
+        <f t="shared" si="1"/>
+        <v>7255</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="0"/>
-        <v>7255</v>
-      </c>
-      <c r="O20">
-        <f>J20+Z45</f>
         <v>11483</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2011</v>
       </c>
@@ -1231,15 +2716,15 @@
         <v>9879</v>
       </c>
       <c r="L21">
+        <f t="shared" si="1"/>
+        <v>6304</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="0"/>
-        <v>6304</v>
-      </c>
-      <c r="O21">
-        <f>J21+Z46</f>
         <v>10291</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2012</v>
       </c>
@@ -1271,15 +2756,15 @@
         <v>9639</v>
       </c>
       <c r="L22">
+        <f t="shared" si="1"/>
+        <v>6053</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="0"/>
-        <v>6053</v>
-      </c>
-      <c r="O22">
-        <f>J22+Z47</f>
         <v>10127</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2013</v>
       </c>
@@ -1311,15 +2796,15 @@
         <v>10306</v>
       </c>
       <c r="L23">
+        <f t="shared" si="1"/>
+        <v>6428</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="0"/>
-        <v>6428</v>
-      </c>
-      <c r="O23">
-        <f>J23+Z48</f>
         <v>10718</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1327,7 +2812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1335,7 +2820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +2882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1995</v>
       </c>
@@ -1432,11 +2917,11 @@
         <v>121</v>
       </c>
       <c r="L30">
-        <f>R30+S30+V30+W30+X30</f>
+        <f t="shared" ref="L30:L48" si="2">R30+S30+V30+W30+X30</f>
         <v>121</v>
       </c>
       <c r="O30">
-        <f>L30/L5</f>
+        <f t="shared" ref="O30:O48" si="3">L30/L5</f>
         <v>1.0733611283597977E-2</v>
       </c>
       <c r="Q30" s="1">
@@ -1470,7 +2955,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1996</v>
       </c>
@@ -1481,11 +2966,11 @@
         <v>18</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" ref="D31:E41" si="1">ROUND(D6*$O31, 0)</f>
+        <f t="shared" ref="D31:E41" si="4">ROUND(D6*$O31, 0)</f>
         <v>2</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="F31" s="2">
@@ -1498,18 +2983,18 @@
         <v>3</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" ref="I31" si="2">ROUND(I6*$O31, 0)</f>
+        <f t="shared" ref="I31" si="5">ROUND(I6*$O31, 0)</f>
         <v>9</v>
       </c>
       <c r="J31" s="2">
         <v>100</v>
       </c>
       <c r="L31">
-        <f>R31+S31+V31+W31+X31</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="O31">
-        <f>L31/L6</f>
+        <f t="shared" si="3"/>
         <v>8.2406262875978579E-3</v>
       </c>
       <c r="Q31" s="1">
@@ -1543,7 +3028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1997</v>
       </c>
@@ -1554,11 +3039,11 @@
         <v>18</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="F32" s="2">
@@ -1571,18 +3056,18 @@
         <v>24</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" ref="I32" si="3">ROUND(I7*$O32, 0)</f>
+        <f t="shared" ref="I32" si="6">ROUND(I7*$O32, 0)</f>
         <v>14</v>
       </c>
       <c r="J32" s="2">
         <v>149</v>
       </c>
       <c r="L32">
-        <f>R32+S32+V32+W32+X32</f>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="O32">
-        <f>L32/L7</f>
+        <f t="shared" si="3"/>
         <v>1.3662204291215844E-2</v>
       </c>
       <c r="Q32" s="1">
@@ -1616,7 +3101,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1998</v>
       </c>
@@ -1627,11 +3112,11 @@
         <v>111</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="F33" s="2">
@@ -1644,18 +3129,18 @@
         <v>47</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" ref="I33" si="4">ROUND(I8*$O33, 0)</f>
+        <f t="shared" ref="I33" si="7">ROUND(I8*$O33, 0)</f>
         <v>27</v>
       </c>
       <c r="J33" s="2">
         <v>324</v>
       </c>
       <c r="L33">
-        <f>R33+S33+V33+W33+X33</f>
+        <f t="shared" si="2"/>
         <v>324</v>
       </c>
       <c r="O33">
-        <f>L33/L8</f>
+        <f t="shared" si="3"/>
         <v>2.4689476491655871E-2</v>
       </c>
       <c r="Q33" s="1">
@@ -1689,7 +3174,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1999</v>
       </c>
@@ -1700,11 +3185,11 @@
         <v>104</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="F34" s="2">
@@ -1717,18 +3202,18 @@
         <v>107</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" ref="I34" si="5">ROUND(I9*$O34, 0)</f>
+        <f t="shared" ref="I34" si="8">ROUND(I9*$O34, 0)</f>
         <v>23</v>
       </c>
       <c r="J34" s="2">
         <v>341</v>
       </c>
       <c r="L34">
-        <f>R34+S34+V34+W34+X34</f>
+        <f t="shared" si="2"/>
         <v>341</v>
       </c>
       <c r="O34">
-        <f>L34/L9</f>
+        <f t="shared" si="3"/>
         <v>2.3217811670184517E-2</v>
       </c>
       <c r="Q34" s="1">
@@ -1762,7 +3247,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2000</v>
       </c>
@@ -1773,11 +3258,11 @@
         <v>215</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="F35" s="2">
@@ -1790,18 +3275,18 @@
         <v>66</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" ref="I35" si="6">ROUND(I10*$O35, 0)</f>
+        <f t="shared" ref="I35" si="9">ROUND(I10*$O35, 0)</f>
         <v>48</v>
       </c>
       <c r="J35" s="2">
         <v>423</v>
       </c>
       <c r="L35">
-        <f>R35+S35+V35+W35+X35</f>
+        <f t="shared" si="2"/>
         <v>423</v>
       </c>
       <c r="O35">
-        <f>L35/L10</f>
+        <f t="shared" si="3"/>
         <v>3.1169405349642621E-2</v>
       </c>
       <c r="Q35" s="1">
@@ -1835,7 +3320,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2001</v>
       </c>
@@ -1846,11 +3331,11 @@
         <v>273</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="F36" s="2">
@@ -1863,18 +3348,18 @@
         <v>107</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" ref="I36" si="7">ROUND(I11*$O36, 0)</f>
+        <f t="shared" ref="I36" si="10">ROUND(I11*$O36, 0)</f>
         <v>45</v>
       </c>
       <c r="J36" s="2">
         <v>507</v>
       </c>
       <c r="L36">
-        <f>R36+S36+V36+W36+X36</f>
+        <f t="shared" si="2"/>
         <v>507</v>
       </c>
       <c r="O36">
-        <f>L36/L11</f>
+        <f t="shared" si="3"/>
         <v>3.8111704126888669E-2</v>
       </c>
       <c r="Q36" s="1">
@@ -1908,7 +3393,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2002</v>
       </c>
@@ -1919,11 +3404,11 @@
         <v>143</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="F37" s="2">
@@ -1936,18 +3421,18 @@
         <v>91</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" ref="I37" si="8">ROUND(I12*$O37, 0)</f>
+        <f t="shared" ref="I37" si="11">ROUND(I12*$O37, 0)</f>
         <v>27</v>
       </c>
       <c r="J37" s="2">
         <v>302</v>
       </c>
       <c r="L37">
-        <f>R37+S37+V37+W37+X37</f>
+        <f t="shared" si="2"/>
         <v>302</v>
       </c>
       <c r="O37">
-        <f>L37/L12</f>
+        <f t="shared" si="3"/>
         <v>2.7688640322728521E-2</v>
       </c>
       <c r="Q37" s="1">
@@ -1981,7 +3466,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2003</v>
       </c>
@@ -1992,11 +3477,11 @@
         <v>122</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="F38" s="2">
@@ -2009,18 +3494,18 @@
         <v>114</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" ref="I38" si="9">ROUND(I13*$O38, 0)</f>
+        <f t="shared" ref="I38" si="12">ROUND(I13*$O38, 0)</f>
         <v>38</v>
       </c>
       <c r="J38" s="2">
         <v>338</v>
       </c>
       <c r="L38">
-        <f>R38+S38+V38+W38+X38</f>
+        <f t="shared" si="2"/>
         <v>338</v>
       </c>
       <c r="O38">
-        <f>L38/L13</f>
+        <f t="shared" si="3"/>
         <v>3.6084125120102485E-2</v>
       </c>
       <c r="Q38" s="1">
@@ -2054,7 +3539,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2004</v>
       </c>
@@ -2065,11 +3550,11 @@
         <v>57</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="F39" s="2">
@@ -2082,18 +3567,18 @@
         <v>163</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" ref="I39" si="10">ROUND(I14*$O39, 0)</f>
+        <f t="shared" ref="I39" si="13">ROUND(I14*$O39, 0)</f>
         <v>39</v>
       </c>
       <c r="J39" s="2">
         <v>317</v>
       </c>
       <c r="L39">
-        <f>R39+S39+V39+W39+X39</f>
+        <f t="shared" si="2"/>
         <v>317</v>
       </c>
       <c r="O39">
-        <f>L39/L14</f>
+        <f t="shared" si="3"/>
         <v>3.7550343520492774E-2</v>
       </c>
       <c r="Q39" s="1">
@@ -2127,7 +3612,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2005</v>
       </c>
@@ -2138,11 +3623,11 @@
         <v>44</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="F40" s="2">
@@ -2161,11 +3646,11 @@
         <v>386</v>
       </c>
       <c r="L40">
-        <f>R40+S40+V40+W40+X40</f>
+        <f t="shared" si="2"/>
         <v>281</v>
       </c>
       <c r="O40">
-        <f>L40/L15</f>
+        <f t="shared" si="3"/>
         <v>3.5777947542653427E-2</v>
       </c>
       <c r="Q40" s="1">
@@ -2199,7 +3684,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2006</v>
       </c>
@@ -2210,11 +3695,11 @@
         <v>56</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
       <c r="F41" s="2">
@@ -2233,11 +3718,11 @@
         <v>437</v>
       </c>
       <c r="L41">
-        <f>R41+S41+V41+W41+X41</f>
+        <f t="shared" si="2"/>
         <v>338</v>
       </c>
       <c r="O41">
-        <f>L41/L16</f>
+        <f t="shared" si="3"/>
         <v>4.4869242001858489E-2</v>
       </c>
       <c r="Q41" s="1">
@@ -2271,7 +3756,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2007</v>
       </c>
@@ -2285,7 +3770,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" ref="E42" si="11">ROUND(E17*$O42, 0)</f>
+        <f t="shared" ref="E42" si="14">ROUND(E17*$O42, 0)</f>
         <v>100</v>
       </c>
       <c r="F42" s="2">
@@ -2304,11 +3789,11 @@
         <v>374</v>
       </c>
       <c r="L42">
-        <f>R42+S42+V42+W42+X42</f>
+        <f t="shared" si="2"/>
         <v>291</v>
       </c>
       <c r="O42">
-        <f>L42/L17</f>
+        <f t="shared" si="3"/>
         <v>3.7802026500389711E-2</v>
       </c>
       <c r="Q42" s="1">
@@ -2342,7 +3827,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2008</v>
       </c>
@@ -2356,7 +3841,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ref="E43" si="12">ROUND(E18*$O43, 0)</f>
+        <f t="shared" ref="E43" si="15">ROUND(E18*$O43, 0)</f>
         <v>100</v>
       </c>
       <c r="F43" s="2">
@@ -2375,11 +3860,11 @@
         <v>364</v>
       </c>
       <c r="L43">
-        <f>R43+S43+V43+W43+X43</f>
+        <f t="shared" si="2"/>
         <v>258</v>
       </c>
       <c r="O43">
-        <f>L43/L18</f>
+        <f t="shared" si="3"/>
         <v>3.8273253226524258E-2</v>
       </c>
       <c r="Q43" s="1">
@@ -2413,7 +3898,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2009</v>
       </c>
@@ -2427,7 +3912,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" ref="E44" si="13">ROUND(E19*$O44, 0)</f>
+        <f t="shared" ref="E44" si="16">ROUND(E19*$O44, 0)</f>
         <v>109</v>
       </c>
       <c r="F44" s="2">
@@ -2446,11 +3931,11 @@
         <v>399</v>
       </c>
       <c r="L44">
-        <f>R44+S44+V44+W44+X44</f>
+        <f t="shared" si="2"/>
         <v>301</v>
       </c>
       <c r="O44">
-        <f>L44/L19</f>
+        <f t="shared" si="3"/>
         <v>4.1465766634522665E-2</v>
       </c>
       <c r="Q44" s="1">
@@ -2484,7 +3969,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2010</v>
       </c>
@@ -2498,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" ref="E45" si="14">ROUND(E20*$O45, 0)</f>
+        <f t="shared" ref="E45" si="17">ROUND(E20*$O45, 0)</f>
         <v>119</v>
       </c>
       <c r="F45" s="2">
@@ -2517,11 +4002,11 @@
         <v>400</v>
       </c>
       <c r="L45">
-        <f>R45+S45+V45+W45+X45</f>
+        <f t="shared" si="2"/>
         <v>323</v>
       </c>
       <c r="O45">
-        <f>L45/L20</f>
+        <f t="shared" si="3"/>
         <v>4.4521019986216402E-2</v>
       </c>
       <c r="Q45" s="1">
@@ -2555,7 +4040,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2011</v>
       </c>
@@ -2569,7 +4054,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" ref="E46" si="15">ROUND(E21*$O46, 0)</f>
+        <f t="shared" ref="E46" si="18">ROUND(E21*$O46, 0)</f>
         <v>110</v>
       </c>
       <c r="F46" s="2">
@@ -2588,11 +4073,11 @@
         <v>412</v>
       </c>
       <c r="L46">
-        <f>R46+S46+V46+W46+X46</f>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="O46">
-        <f>L46/L21</f>
+        <f t="shared" si="3"/>
         <v>4.5843908629441626E-2</v>
       </c>
       <c r="Q46" s="1">
@@ -2626,7 +4111,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2012</v>
       </c>
@@ -2640,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" ref="E47" si="16">ROUND(E22*$O47, 0)</f>
+        <f t="shared" ref="E47" si="19">ROUND(E22*$O47, 0)</f>
         <v>142</v>
       </c>
       <c r="F47" s="2">
@@ -2659,11 +4144,11 @@
         <v>488</v>
       </c>
       <c r="L47">
-        <f>R47+S47+V47+W47+X47</f>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
       <c r="O47">
-        <f>L47/L22</f>
+        <f t="shared" si="3"/>
         <v>5.9474640674045925E-2</v>
       </c>
       <c r="Q47" s="1">
@@ -2697,7 +4182,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2013</v>
       </c>
@@ -2711,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" ref="E48" si="17">ROUND(E23*$O48, 0)</f>
+        <f t="shared" ref="E48" si="20">ROUND(E23*$O48, 0)</f>
         <v>111</v>
       </c>
       <c r="F48" s="2">
@@ -2730,11 +4215,11 @@
         <v>412</v>
       </c>
       <c r="L48">
-        <f>R48+S48+V48+W48+X48</f>
+        <f t="shared" si="2"/>
         <v>288</v>
       </c>
       <c r="O48">
-        <f>L48/L23</f>
+        <f t="shared" si="3"/>
         <v>4.4803982576229001E-2</v>
       </c>
       <c r="Q48" s="1">
@@ -2773,6 +4258,7 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2782,7 +4268,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2794,7 +4280,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excelsheets/statenotificationscalculations.xlsx
+++ b/data/excelsheets/statenotificationscalculations.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\EpiML\data\excelsheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="60" windowWidth="23952" windowHeight="12840"/>
+    <workbookView xWindow="1050" yWindow="60" windowWidth="23955" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +214,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-AU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -911,11 +906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="353614544"/>
-        <c:axId val="353614152"/>
+        <c:axId val="909509632"/>
+        <c:axId val="221077504"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="353614544"/>
+        <c:axId val="909509632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353614152"/>
+        <c:crossAx val="221077504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -965,7 +960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353614152"/>
+        <c:axId val="221077504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,7 +1011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353614544"/>
+        <c:crossAx val="909509632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1662,16 +1657,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>329565</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1736,7 +1731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1771,7 +1766,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1982,16 +1977,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1999,17 +1994,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2044,7 +2039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1995</v>
       </c>
@@ -2084,7 +2079,7 @@
         <v>15572</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1996</v>
       </c>
@@ -2124,7 +2119,7 @@
         <v>16257</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1997</v>
       </c>
@@ -2164,7 +2159,7 @@
         <v>15168</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1998</v>
       </c>
@@ -2204,7 +2199,7 @@
         <v>17652</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1999</v>
       </c>
@@ -2244,7 +2239,7 @@
         <v>19204</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2000</v>
       </c>
@@ -2284,7 +2279,7 @@
         <v>19036</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2001</v>
       </c>
@@ -2324,7 +2319,7 @@
         <v>18169</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2002</v>
       </c>
@@ -2364,7 +2359,7 @@
         <v>15264</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2003</v>
       </c>
@@ -2404,7 +2399,7 @@
         <v>13578</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2004</v>
       </c>
@@ -2444,7 +2439,7 @@
         <v>12680</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2005</v>
       </c>
@@ -2484,7 +2479,7 @@
         <v>12068</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2006</v>
       </c>
@@ -2524,7 +2519,7 @@
         <v>12057</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2007</v>
       </c>
@@ -2564,7 +2559,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2008</v>
       </c>
@@ -2604,7 +2599,7 @@
         <v>11165</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2009</v>
       </c>
@@ -2644,7 +2639,7 @@
         <v>11498</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2010</v>
       </c>
@@ -2684,7 +2679,7 @@
         <v>11483</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2011</v>
       </c>
@@ -2724,7 +2719,7 @@
         <v>10291</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2012</v>
       </c>
@@ -2764,7 +2759,7 @@
         <v>10127</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2013</v>
       </c>
@@ -2804,7 +2799,7 @@
         <v>10718</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2812,7 +2807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2820,7 +2815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2882,7 +2877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1995</v>
       </c>
@@ -2955,7 +2950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1996</v>
       </c>
@@ -3028,7 +3023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1997</v>
       </c>
@@ -3101,7 +3096,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1998</v>
       </c>
@@ -3174,7 +3169,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1999</v>
       </c>
@@ -3247,7 +3242,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2000</v>
       </c>
@@ -3320,7 +3315,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2001</v>
       </c>
@@ -3393,7 +3388,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2002</v>
       </c>
@@ -3466,7 +3461,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2003</v>
       </c>
@@ -3539,7 +3534,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2004</v>
       </c>
@@ -3612,7 +3607,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2005</v>
       </c>
@@ -3684,7 +3679,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2006</v>
       </c>
@@ -3756,7 +3751,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2007</v>
       </c>
@@ -3827,7 +3822,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2008</v>
       </c>
@@ -3898,7 +3893,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2009</v>
       </c>
@@ -3969,7 +3964,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2010</v>
       </c>
@@ -4040,7 +4035,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2011</v>
       </c>
@@ -4111,7 +4106,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2012</v>
       </c>
@@ -4182,7 +4177,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2013</v>
       </c>
@@ -4268,7 +4263,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4280,7 +4275,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/excelsheets/statenotificationscalculations.xlsx
+++ b/data/excelsheets/statenotificationscalculations.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
   <si>
     <t>NN</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Updated data (using national rate for HCV notifications where there aren't any)</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -906,11 +909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="909509632"/>
-        <c:axId val="221077504"/>
+        <c:axId val="176063616"/>
+        <c:axId val="176065152"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="909509632"/>
+        <c:axId val="176063616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221077504"/>
+        <c:crossAx val="176065152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -960,7 +963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221077504"/>
+        <c:axId val="176065152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,7 +1014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="909509632"/>
+        <c:crossAx val="176063616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1975,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3751,7 +3754,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2007</v>
       </c>
@@ -4246,6 +4249,819 @@
       </c>
       <c r="Z48" s="2">
         <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B52" s="2">
+        <f>B5+R30</f>
+        <v>336</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" ref="C52:J67" si="21">C5+S30</f>
+        <v>6590</v>
+      </c>
+      <c r="D52" s="2">
+        <f>D5</f>
+        <v>301</v>
+      </c>
+      <c r="E52" s="2">
+        <f>E5</f>
+        <v>2772</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="21"/>
+        <v>2226</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="21"/>
+        <v>253</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="21"/>
+        <v>1989</v>
+      </c>
+      <c r="I52" s="2">
+        <f>I5</f>
+        <v>1105</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="21"/>
+        <v>15572</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" ref="B53:B70" si="22">B6+R31</f>
+        <v>277</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="21"/>
+        <v>7087</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" ref="D53:E63" si="23">D6</f>
+        <v>214</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="23"/>
+        <v>2759</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="21"/>
+        <v>2451</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="21"/>
+        <v>259</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="21"/>
+        <v>2161</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" ref="I53:I61" si="24">I6</f>
+        <v>1049</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="21"/>
+        <v>16257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="22"/>
+        <v>317</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="21"/>
+        <v>6486</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="23"/>
+        <v>295</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="23"/>
+        <v>2819</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="21"/>
+        <v>1905</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="21"/>
+        <v>201</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="21"/>
+        <v>2146</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="24"/>
+        <v>999</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="21"/>
+        <v>15168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>1998</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="22"/>
+        <v>298</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="21"/>
+        <v>6855</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="23"/>
+        <v>233</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="23"/>
+        <v>2876</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="21"/>
+        <v>1836</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="21"/>
+        <v>274</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="21"/>
+        <v>4184</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="24"/>
+        <v>1096</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="21"/>
+        <v>17652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1999</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="22"/>
+        <v>301</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="21"/>
+        <v>7797</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="23"/>
+        <v>192</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="23"/>
+        <v>3004</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="21"/>
+        <v>1017</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="21"/>
+        <v>296</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="21"/>
+        <v>5617</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="24"/>
+        <v>980</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="21"/>
+        <v>19204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="22"/>
+        <v>231</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="21"/>
+        <v>7357</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="23"/>
+        <v>189</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="23"/>
+        <v>3312</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="21"/>
+        <v>963</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="21"/>
+        <v>330</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="21"/>
+        <v>5113</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="24"/>
+        <v>1541</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="21"/>
+        <v>19036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="22"/>
+        <v>230</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="21"/>
+        <v>7769</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="23"/>
+        <v>214</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="23"/>
+        <v>2955</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="21"/>
+        <v>879</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="21"/>
+        <v>329</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="21"/>
+        <v>4603</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="24"/>
+        <v>1190</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="21"/>
+        <v>18169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="22"/>
+        <v>233</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="21"/>
+        <v>6165</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="23"/>
+        <v>200</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="23"/>
+        <v>2866</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="21"/>
+        <v>688</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="21"/>
+        <v>340</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="21"/>
+        <v>3783</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="24"/>
+        <v>989</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="21"/>
+        <v>15264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="22"/>
+        <v>253</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="21"/>
+        <v>4892</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="23"/>
+        <v>219</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="23"/>
+        <v>2590</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="21"/>
+        <v>660</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="21"/>
+        <v>353</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="21"/>
+        <v>3547</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="24"/>
+        <v>1064</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="21"/>
+        <v>13578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="22"/>
+        <v>216</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="21"/>
+        <v>4532</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="23"/>
+        <v>258</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="23"/>
+        <v>2633</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="21"/>
+        <v>673</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="21"/>
+        <v>309</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="21"/>
+        <v>3029</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="24"/>
+        <v>1030</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="21"/>
+        <v>12680</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="22"/>
+        <v>173</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="21"/>
+        <v>4158</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="23"/>
+        <v>255</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="23"/>
+        <v>2623</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="21"/>
+        <v>603</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="21"/>
+        <v>240</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="21"/>
+        <v>2961</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="21"/>
+        <v>1055</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="21"/>
+        <v>12068</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="22"/>
+        <v>192</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="21"/>
+        <v>4092</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="23"/>
+        <v>259</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="23"/>
+        <v>2821</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="21"/>
+        <v>570</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="21"/>
+        <v>271</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="21"/>
+        <v>2746</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="21"/>
+        <v>1106</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="21"/>
+        <v>12057</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="22"/>
+        <v>199</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="21"/>
+        <v>4131</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="21"/>
+        <v>229</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" ref="E64" si="25">E17</f>
+        <v>2647</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="21"/>
+        <v>627</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="21"/>
+        <v>273</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="21"/>
+        <v>2759</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" si="21"/>
+        <v>1235</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="21"/>
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="22"/>
+        <v>201</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="21"/>
+        <v>3425</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="21"/>
+        <v>209</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" ref="E65" si="26">E18</f>
+        <v>2602</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="21"/>
+        <v>611</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="21"/>
+        <v>349</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="21"/>
+        <v>2413</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="21"/>
+        <v>1355</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="21"/>
+        <v>11165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="22"/>
+        <v>163</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="21"/>
+        <v>4053</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="21"/>
+        <v>168</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" ref="E66" si="27">E19</f>
+        <v>2632</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="21"/>
+        <v>563</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="21"/>
+        <v>281</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="21"/>
+        <v>2500</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="21"/>
+        <v>1138</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="21"/>
+        <v>11498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="22"/>
+        <v>223</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="21"/>
+        <v>3979</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="21"/>
+        <v>169</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67" si="28">E20</f>
+        <v>2671</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="21"/>
+        <v>534</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="21"/>
+        <v>267</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="21"/>
+        <v>2575</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" si="21"/>
+        <v>1065</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" si="21"/>
+        <v>11483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="22"/>
+        <v>189</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" ref="C68:C70" si="29">C21+S46</f>
+        <v>3372</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" ref="D68:D70" si="30">D21+T46</f>
+        <v>208</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" ref="E68" si="31">E21</f>
+        <v>2407</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" ref="F68:F70" si="32">F21+V46</f>
+        <v>474</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" ref="G68:G70" si="33">G21+W46</f>
+        <v>229</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" ref="H68:H70" si="34">H21+X46</f>
+        <v>2329</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" ref="I68:I70" si="35">I21+Y46</f>
+        <v>1083</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" ref="J68:J70" si="36">J21+Z46</f>
+        <v>10291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="22"/>
+        <v>147</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="29"/>
+        <v>3277</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="30"/>
+        <v>191</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" ref="E69" si="37">E22</f>
+        <v>2384</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="32"/>
+        <v>487</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="33"/>
+        <v>262</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="34"/>
+        <v>2240</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="35"/>
+        <v>1139</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="36"/>
+        <v>10127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="22"/>
+        <v>184</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="29"/>
+        <v>3550</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="30"/>
+        <v>257</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" ref="E70" si="38">E23</f>
+        <v>2467</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="32"/>
+        <v>476</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="33"/>
+        <v>229</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="34"/>
+        <v>2277</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="35"/>
+        <v>1278</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="36"/>
+        <v>10718</v>
       </c>
     </row>
   </sheetData>

--- a/data/excelsheets/statenotificationscalculations.xlsx
+++ b/data/excelsheets/statenotificationscalculations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="21">
   <si>
     <t>NN</t>
   </si>
@@ -909,11 +909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176063616"/>
-        <c:axId val="176065152"/>
+        <c:axId val="55762304"/>
+        <c:axId val="69051904"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="176063616"/>
+        <c:axId val="55762304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176065152"/>
+        <c:crossAx val="69051904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -963,7 +963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176065152"/>
+        <c:axId val="69051904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176063616"/>
+        <c:crossAx val="55762304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1978,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z70"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:J70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,7 +2118,7 @@
         <v>12135</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
+        <f>J6+Z31</f>
         <v>16257</v>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
         <v>15019</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f>B7+C7+F7+G7+H7</f>
         <v>10906</v>
       </c>
       <c r="O7">
@@ -2802,6 +2802,46 @@
         <v>10718</v>
       </c>
     </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B24" s="2">
+        <v>163</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3566</v>
+      </c>
+      <c r="D24" s="2">
+        <v>187</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2648</v>
+      </c>
+      <c r="F24" s="2">
+        <v>464</v>
+      </c>
+      <c r="G24" s="2">
+        <v>220</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2051</v>
+      </c>
+      <c r="I24" s="2">
+        <v>993</v>
+      </c>
+      <c r="J24" s="2">
+        <v>10292</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24" si="2">B24+C24+F24+G24+H24</f>
+        <v>6464</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24" si="3">J24+Z49</f>
+        <v>10692</v>
+      </c>
+    </row>
     <row r="27" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
@@ -2915,11 +2955,11 @@
         <v>121</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="L30:L48" si="2">R30+S30+V30+W30+X30</f>
+        <f t="shared" ref="L30:L48" si="4">R30+S30+V30+W30+X30</f>
         <v>121</v>
       </c>
       <c r="O30">
-        <f t="shared" ref="O30:O48" si="3">L30/L5</f>
+        <f t="shared" ref="O30:O48" si="5">L30/L5</f>
         <v>1.0733611283597977E-2</v>
       </c>
       <c r="Q30" s="1">
@@ -2964,11 +3004,11 @@
         <v>18</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" ref="D31:E41" si="4">ROUND(D6*$O31, 0)</f>
+        <f t="shared" ref="D31:E41" si="6">ROUND(D6*$O31, 0)</f>
         <v>2</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="F31" s="2">
@@ -2981,18 +3021,18 @@
         <v>3</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" ref="I31" si="5">ROUND(I6*$O31, 0)</f>
+        <f t="shared" ref="I31" si="7">ROUND(I6*$O31, 0)</f>
         <v>9</v>
       </c>
       <c r="J31" s="2">
         <v>100</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="O31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.2406262875978579E-3</v>
       </c>
       <c r="Q31" s="1">
@@ -3037,11 +3077,11 @@
         <v>18</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="F32" s="2">
@@ -3054,18 +3094,18 @@
         <v>24</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" ref="I32" si="6">ROUND(I7*$O32, 0)</f>
+        <f t="shared" ref="I32" si="8">ROUND(I7*$O32, 0)</f>
         <v>14</v>
       </c>
       <c r="J32" s="2">
         <v>149</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>149</v>
       </c>
       <c r="O32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.3662204291215844E-2</v>
       </c>
       <c r="Q32" s="1">
@@ -3110,11 +3150,11 @@
         <v>111</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="F33" s="2">
@@ -3127,18 +3167,18 @@
         <v>47</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" ref="I33" si="7">ROUND(I8*$O33, 0)</f>
+        <f t="shared" ref="I33" si="9">ROUND(I8*$O33, 0)</f>
         <v>27</v>
       </c>
       <c r="J33" s="2">
         <v>324</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
       <c r="O33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4689476491655871E-2</v>
       </c>
       <c r="Q33" s="1">
@@ -3183,11 +3223,11 @@
         <v>104</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="F34" s="2">
@@ -3200,18 +3240,18 @@
         <v>107</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" ref="I34" si="8">ROUND(I9*$O34, 0)</f>
+        <f t="shared" ref="I34" si="10">ROUND(I9*$O34, 0)</f>
         <v>23</v>
       </c>
       <c r="J34" s="2">
         <v>341</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f>R34+S34+V34+W34+X34</f>
         <v>341</v>
       </c>
       <c r="O34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3217811670184517E-2</v>
       </c>
       <c r="Q34" s="1">
@@ -3256,11 +3296,11 @@
         <v>215</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>103</v>
       </c>
       <c r="F35" s="2">
@@ -3273,18 +3313,18 @@
         <v>66</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" ref="I35" si="9">ROUND(I10*$O35, 0)</f>
+        <f t="shared" ref="I35" si="11">ROUND(I10*$O35, 0)</f>
         <v>48</v>
       </c>
       <c r="J35" s="2">
         <v>423</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>423</v>
       </c>
       <c r="O35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1169405349642621E-2</v>
       </c>
       <c r="Q35" s="1">
@@ -3329,11 +3369,11 @@
         <v>273</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>113</v>
       </c>
       <c r="F36" s="2">
@@ -3346,18 +3386,18 @@
         <v>107</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" ref="I36" si="10">ROUND(I11*$O36, 0)</f>
+        <f t="shared" ref="I36" si="12">ROUND(I11*$O36, 0)</f>
         <v>45</v>
       </c>
       <c r="J36" s="2">
         <v>507</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>507</v>
       </c>
       <c r="O36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.8111704126888669E-2</v>
       </c>
       <c r="Q36" s="1">
@@ -3402,11 +3442,11 @@
         <v>143</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
       <c r="F37" s="2">
@@ -3419,18 +3459,18 @@
         <v>91</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" ref="I37" si="11">ROUND(I12*$O37, 0)</f>
+        <f t="shared" ref="I37" si="13">ROUND(I12*$O37, 0)</f>
         <v>27</v>
       </c>
       <c r="J37" s="2">
         <v>302</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="O37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7688640322728521E-2</v>
       </c>
       <c r="Q37" s="1">
@@ -3475,11 +3515,11 @@
         <v>122</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="F38" s="2">
@@ -3492,18 +3532,18 @@
         <v>114</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" ref="I38" si="12">ROUND(I13*$O38, 0)</f>
+        <f t="shared" ref="I38" si="14">ROUND(I13*$O38, 0)</f>
         <v>38</v>
       </c>
       <c r="J38" s="2">
         <v>338</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
       <c r="O38">
-        <f t="shared" si="3"/>
+        <f>L38/L13</f>
         <v>3.6084125120102485E-2</v>
       </c>
       <c r="Q38" s="1">
@@ -3548,11 +3588,11 @@
         <v>57</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="F39" s="2">
@@ -3565,18 +3605,18 @@
         <v>163</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" ref="I39" si="13">ROUND(I14*$O39, 0)</f>
+        <f t="shared" ref="I39" si="15">ROUND(I14*$O39, 0)</f>
         <v>39</v>
       </c>
       <c r="J39" s="2">
         <v>317</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>317</v>
       </c>
       <c r="O39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.7550343520492774E-2</v>
       </c>
       <c r="Q39" s="1">
@@ -3621,11 +3661,11 @@
         <v>44</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="F40" s="2">
@@ -3644,11 +3684,11 @@
         <v>386</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
       <c r="O40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.5777947542653427E-2</v>
       </c>
       <c r="Q40" s="1">
@@ -3693,11 +3733,11 @@
         <v>56</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
       <c r="F41" s="2">
@@ -3716,11 +3756,11 @@
         <v>437</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
       <c r="O41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.4869242001858489E-2</v>
       </c>
       <c r="Q41" s="1">
@@ -3768,7 +3808,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" ref="E42" si="14">ROUND(E17*$O42, 0)</f>
+        <f t="shared" ref="E42" si="16">ROUND(E17*$O42, 0)</f>
         <v>100</v>
       </c>
       <c r="F42" s="2">
@@ -3787,11 +3827,11 @@
         <v>374</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="O42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.7802026500389711E-2</v>
       </c>
       <c r="Q42" s="1">
@@ -3839,7 +3879,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ref="E43" si="15">ROUND(E18*$O43, 0)</f>
+        <f>ROUND(E18*$O43, 0)</f>
         <v>100</v>
       </c>
       <c r="F43" s="2">
@@ -3858,11 +3898,11 @@
         <v>364</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>258</v>
       </c>
       <c r="O43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.8273253226524258E-2</v>
       </c>
       <c r="Q43" s="1">
@@ -3910,7 +3950,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" ref="E44" si="16">ROUND(E19*$O44, 0)</f>
+        <f t="shared" ref="E44" si="17">ROUND(E19*$O44, 0)</f>
         <v>109</v>
       </c>
       <c r="F44" s="2">
@@ -3929,11 +3969,11 @@
         <v>399</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="O44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.1465766634522665E-2</v>
       </c>
       <c r="Q44" s="1">
@@ -3981,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" ref="E45" si="17">ROUND(E20*$O45, 0)</f>
+        <f t="shared" ref="E45" si="18">ROUND(E20*$O45, 0)</f>
         <v>119</v>
       </c>
       <c r="F45" s="2">
@@ -4000,11 +4040,11 @@
         <v>400</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>323</v>
       </c>
       <c r="O45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.4521019986216402E-2</v>
       </c>
       <c r="Q45" s="1">
@@ -4052,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" ref="E46" si="18">ROUND(E21*$O46, 0)</f>
+        <f t="shared" ref="E46" si="19">ROUND(E21*$O46, 0)</f>
         <v>110</v>
       </c>
       <c r="F46" s="2">
@@ -4071,11 +4111,11 @@
         <v>412</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="O46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.5843908629441626E-2</v>
       </c>
       <c r="Q46" s="1">
@@ -4123,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" ref="E47" si="19">ROUND(E22*$O47, 0)</f>
+        <f t="shared" ref="E47" si="20">ROUND(E22*$O47, 0)</f>
         <v>142</v>
       </c>
       <c r="F47" s="2">
@@ -4142,11 +4182,11 @@
         <v>488</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>360</v>
       </c>
       <c r="O47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9474640674045925E-2</v>
       </c>
       <c r="Q47" s="1">
@@ -4194,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" ref="E48" si="20">ROUND(E23*$O48, 0)</f>
+        <f t="shared" ref="E48:E49" si="21">ROUND(E23*$O48, 0)</f>
         <v>111</v>
       </c>
       <c r="F48" s="2">
@@ -4213,11 +4253,11 @@
         <v>412</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="O48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.4803982576229001E-2</v>
       </c>
       <c r="Q48" s="1">
@@ -4251,817 +4291,961 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B49" s="2">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2">
+        <v>25</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="21"/>
+        <v>98</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45</v>
+      </c>
+      <c r="G49" s="2">
+        <v>14</v>
+      </c>
+      <c r="H49" s="2">
+        <v>146</v>
+      </c>
+      <c r="I49" s="2">
+        <v>159</v>
+      </c>
+      <c r="J49" s="2">
+        <v>400</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ref="L49" si="22">R49+S49+V49+W49+X49</f>
+        <v>239</v>
+      </c>
+      <c r="O49">
+        <f t="shared" ref="O49" si="23">L49/L24</f>
+        <v>3.6974009900990097E-2</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>2014</v>
+      </c>
+      <c r="R49" s="2">
+        <v>9</v>
+      </c>
+      <c r="S49" s="2">
+        <v>25</v>
+      </c>
+      <c r="T49" s="2">
+        <v>2</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2">
+        <v>45</v>
+      </c>
+      <c r="W49" s="2">
+        <v>14</v>
+      </c>
+      <c r="X49" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>159</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>2014</v>
+      </c>
+      <c r="R51">
+        <v>9</v>
+      </c>
+      <c r="S51">
+        <v>25</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="U51" t="s">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>45</v>
+      </c>
+      <c r="W51">
+        <v>14</v>
+      </c>
+      <c r="X51">
+        <v>146</v>
+      </c>
+      <c r="Y51">
+        <v>159</v>
+      </c>
+      <c r="Z51">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>1995</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B55" s="2">
         <f>B5+R30</f>
         <v>336</v>
       </c>
-      <c r="C52" s="2">
-        <f t="shared" ref="C52:J67" si="21">C5+S30</f>
+      <c r="C55" s="2">
+        <f>C5+S30</f>
         <v>6590</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D55" s="2">
         <f>D5</f>
         <v>301</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E55" s="2">
         <f>E5</f>
         <v>2772</v>
       </c>
-      <c r="F52" s="2">
-        <f t="shared" si="21"/>
+      <c r="F55" s="2">
+        <f>F5+V30</f>
         <v>2226</v>
       </c>
-      <c r="G52" s="2">
-        <f t="shared" si="21"/>
+      <c r="G55" s="2">
+        <f>G5+W30</f>
         <v>253</v>
       </c>
-      <c r="H52" s="2">
-        <f t="shared" si="21"/>
+      <c r="H55" s="2">
+        <f>H5+X30</f>
         <v>1989</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I55" s="2">
         <f>I5</f>
         <v>1105</v>
       </c>
-      <c r="J52" s="2">
-        <f t="shared" si="21"/>
+      <c r="J55" s="2">
+        <f>J5+Z30</f>
         <v>15572</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>1996</v>
       </c>
-      <c r="B53" s="2">
-        <f t="shared" ref="B53:B70" si="22">B6+R31</f>
+      <c r="B56" s="2">
+        <f>B6+R31</f>
         <v>277</v>
       </c>
-      <c r="C53" s="2">
-        <f t="shared" si="21"/>
+      <c r="C56" s="2">
+        <f>C6+S31</f>
         <v>7087</v>
       </c>
-      <c r="D53" s="2">
-        <f t="shared" ref="D53:E63" si="23">D6</f>
+      <c r="D56" s="2">
+        <f>D6</f>
         <v>214</v>
       </c>
-      <c r="E53" s="2">
-        <f t="shared" si="23"/>
+      <c r="E56" s="2">
+        <f>E6</f>
         <v>2759</v>
       </c>
-      <c r="F53" s="2">
-        <f t="shared" si="21"/>
+      <c r="F56" s="2">
+        <f>F6+V31</f>
         <v>2451</v>
       </c>
-      <c r="G53" s="2">
-        <f t="shared" si="21"/>
+      <c r="G56" s="2">
+        <f>G6+W31</f>
         <v>259</v>
       </c>
-      <c r="H53" s="2">
-        <f t="shared" si="21"/>
+      <c r="H56" s="2">
+        <f>H6+X31</f>
         <v>2161</v>
       </c>
-      <c r="I53" s="2">
-        <f t="shared" ref="I53:I61" si="24">I6</f>
+      <c r="I56" s="2">
+        <f>I6</f>
         <v>1049</v>
       </c>
-      <c r="J53" s="2">
-        <f t="shared" si="21"/>
+      <c r="J56" s="2">
+        <f>J6+Z31</f>
         <v>16257</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>1997</v>
       </c>
-      <c r="B54" s="2">
-        <f t="shared" si="22"/>
+      <c r="B57" s="2">
+        <f>B7+R32</f>
         <v>317</v>
       </c>
-      <c r="C54" s="2">
-        <f t="shared" si="21"/>
+      <c r="C57" s="2">
+        <f>C7+S32</f>
         <v>6486</v>
       </c>
-      <c r="D54" s="2">
-        <f t="shared" si="23"/>
+      <c r="D57" s="2">
+        <f>D7</f>
         <v>295</v>
       </c>
-      <c r="E54" s="2">
-        <f t="shared" si="23"/>
+      <c r="E57" s="2">
+        <f>E7</f>
         <v>2819</v>
       </c>
-      <c r="F54" s="2">
-        <f t="shared" si="21"/>
+      <c r="F57" s="2">
+        <f>F7+V32</f>
         <v>1905</v>
       </c>
-      <c r="G54" s="2">
-        <f t="shared" si="21"/>
+      <c r="G57" s="2">
+        <f>G7+W32</f>
         <v>201</v>
       </c>
-      <c r="H54" s="2">
-        <f t="shared" si="21"/>
+      <c r="H57" s="2">
+        <f>H7+X32</f>
         <v>2146</v>
       </c>
-      <c r="I54" s="2">
-        <f t="shared" si="24"/>
+      <c r="I57" s="2">
+        <f>I7</f>
         <v>999</v>
       </c>
-      <c r="J54" s="2">
-        <f t="shared" si="21"/>
+      <c r="J57" s="2">
+        <f>J7+Z32</f>
         <v>15168</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>1998</v>
       </c>
-      <c r="B55" s="2">
-        <f t="shared" si="22"/>
+      <c r="B58" s="2">
+        <f>B8+R33</f>
         <v>298</v>
       </c>
-      <c r="C55" s="2">
-        <f t="shared" si="21"/>
+      <c r="C58" s="2">
+        <f>C8+S33</f>
         <v>6855</v>
       </c>
-      <c r="D55" s="2">
-        <f t="shared" si="23"/>
+      <c r="D58" s="2">
+        <f>D8</f>
         <v>233</v>
       </c>
-      <c r="E55" s="2">
-        <f t="shared" si="23"/>
+      <c r="E58" s="2">
+        <f>E8</f>
         <v>2876</v>
       </c>
-      <c r="F55" s="2">
-        <f t="shared" si="21"/>
+      <c r="F58" s="2">
+        <f>F8+V33</f>
         <v>1836</v>
       </c>
-      <c r="G55" s="2">
-        <f t="shared" si="21"/>
+      <c r="G58" s="2">
+        <f>G8+W33</f>
         <v>274</v>
       </c>
-      <c r="H55" s="2">
-        <f t="shared" si="21"/>
+      <c r="H58" s="2">
+        <f>H8+X33</f>
         <v>4184</v>
       </c>
-      <c r="I55" s="2">
-        <f t="shared" si="24"/>
+      <c r="I58" s="2">
+        <f>I8</f>
         <v>1096</v>
       </c>
-      <c r="J55" s="2">
-        <f t="shared" si="21"/>
+      <c r="J58" s="2">
+        <f>J8+Z33</f>
         <v>17652</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>1999</v>
       </c>
-      <c r="B56" s="2">
-        <f t="shared" si="22"/>
+      <c r="B59" s="2">
+        <f>B9+R34</f>
         <v>301</v>
       </c>
-      <c r="C56" s="2">
-        <f t="shared" si="21"/>
+      <c r="C59" s="2">
+        <f>C9+S34</f>
         <v>7797</v>
       </c>
-      <c r="D56" s="2">
-        <f t="shared" si="23"/>
+      <c r="D59" s="2">
+        <f>D9</f>
         <v>192</v>
       </c>
-      <c r="E56" s="2">
-        <f t="shared" si="23"/>
+      <c r="E59" s="2">
+        <f>E9</f>
         <v>3004</v>
       </c>
-      <c r="F56" s="2">
-        <f t="shared" si="21"/>
+      <c r="F59" s="2">
+        <f>F9+V34</f>
         <v>1017</v>
       </c>
-      <c r="G56" s="2">
-        <f t="shared" si="21"/>
+      <c r="G59" s="2">
+        <f>G9+W34</f>
         <v>296</v>
       </c>
-      <c r="H56" s="2">
-        <f t="shared" si="21"/>
+      <c r="H59" s="2">
+        <f>H9+X34</f>
         <v>5617</v>
       </c>
-      <c r="I56" s="2">
-        <f t="shared" si="24"/>
+      <c r="I59" s="2">
+        <f>I9</f>
         <v>980</v>
       </c>
-      <c r="J56" s="2">
-        <f t="shared" si="21"/>
+      <c r="J59" s="2">
+        <f>J9+Z34</f>
         <v>19204</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>2000</v>
       </c>
-      <c r="B57" s="2">
-        <f t="shared" si="22"/>
+      <c r="B60" s="2">
+        <f>B10+R35</f>
         <v>231</v>
       </c>
-      <c r="C57" s="2">
-        <f t="shared" si="21"/>
+      <c r="C60" s="2">
+        <f>C10+S35</f>
         <v>7357</v>
       </c>
-      <c r="D57" s="2">
-        <f t="shared" si="23"/>
+      <c r="D60" s="2">
+        <f>D10</f>
         <v>189</v>
       </c>
-      <c r="E57" s="2">
-        <f t="shared" si="23"/>
+      <c r="E60" s="2">
+        <f>E10</f>
         <v>3312</v>
       </c>
-      <c r="F57" s="2">
-        <f t="shared" si="21"/>
+      <c r="F60" s="2">
+        <f>F10+V35</f>
         <v>963</v>
       </c>
-      <c r="G57" s="2">
-        <f t="shared" si="21"/>
+      <c r="G60" s="2">
+        <f>G10+W35</f>
         <v>330</v>
       </c>
-      <c r="H57" s="2">
-        <f t="shared" si="21"/>
+      <c r="H60" s="2">
+        <f>H10+X35</f>
         <v>5113</v>
       </c>
-      <c r="I57" s="2">
-        <f t="shared" si="24"/>
+      <c r="I60" s="2">
+        <f>I10</f>
         <v>1541</v>
       </c>
-      <c r="J57" s="2">
-        <f t="shared" si="21"/>
+      <c r="J60" s="2">
+        <f>J10+Z35</f>
         <v>19036</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>2001</v>
       </c>
-      <c r="B58" s="2">
-        <f t="shared" si="22"/>
+      <c r="B61" s="2">
+        <f>B11+R36</f>
         <v>230</v>
       </c>
-      <c r="C58" s="2">
-        <f t="shared" si="21"/>
+      <c r="C61" s="2">
+        <f>C11+S36</f>
         <v>7769</v>
       </c>
-      <c r="D58" s="2">
-        <f t="shared" si="23"/>
+      <c r="D61" s="2">
+        <f>D11</f>
         <v>214</v>
       </c>
-      <c r="E58" s="2">
-        <f t="shared" si="23"/>
+      <c r="E61" s="2">
+        <f>E11</f>
         <v>2955</v>
       </c>
-      <c r="F58" s="2">
-        <f t="shared" si="21"/>
+      <c r="F61" s="2">
+        <f>F11+V36</f>
         <v>879</v>
       </c>
-      <c r="G58" s="2">
-        <f t="shared" si="21"/>
+      <c r="G61" s="2">
+        <f>G11+W36</f>
         <v>329</v>
       </c>
-      <c r="H58" s="2">
-        <f t="shared" si="21"/>
+      <c r="H61" s="2">
+        <f>H11+X36</f>
         <v>4603</v>
       </c>
-      <c r="I58" s="2">
-        <f t="shared" si="24"/>
+      <c r="I61" s="2">
+        <f>I11</f>
         <v>1190</v>
       </c>
-      <c r="J58" s="2">
-        <f t="shared" si="21"/>
+      <c r="J61" s="2">
+        <f>J11+Z36</f>
         <v>18169</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>2002</v>
       </c>
-      <c r="B59" s="2">
-        <f t="shared" si="22"/>
+      <c r="B62" s="2">
+        <f>B12+R37</f>
         <v>233</v>
       </c>
-      <c r="C59" s="2">
-        <f t="shared" si="21"/>
+      <c r="C62" s="2">
+        <f>C12+S37</f>
         <v>6165</v>
       </c>
-      <c r="D59" s="2">
-        <f t="shared" si="23"/>
+      <c r="D62" s="2">
+        <f>D12</f>
         <v>200</v>
       </c>
-      <c r="E59" s="2">
-        <f t="shared" si="23"/>
+      <c r="E62" s="2">
+        <f>E12</f>
         <v>2866</v>
       </c>
-      <c r="F59" s="2">
-        <f t="shared" si="21"/>
+      <c r="F62" s="2">
+        <f>F12+V37</f>
         <v>688</v>
       </c>
-      <c r="G59" s="2">
-        <f t="shared" si="21"/>
+      <c r="G62" s="2">
+        <f>G12+W37</f>
         <v>340</v>
       </c>
-      <c r="H59" s="2">
-        <f t="shared" si="21"/>
+      <c r="H62" s="2">
+        <f>H12+X37</f>
         <v>3783</v>
       </c>
-      <c r="I59" s="2">
-        <f t="shared" si="24"/>
+      <c r="I62" s="2">
+        <f>I12</f>
         <v>989</v>
       </c>
-      <c r="J59" s="2">
-        <f t="shared" si="21"/>
+      <c r="J62" s="2">
+        <f>J12+Z37</f>
         <v>15264</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>2003</v>
       </c>
-      <c r="B60" s="2">
-        <f t="shared" si="22"/>
+      <c r="B63" s="2">
+        <f>B13+R38</f>
         <v>253</v>
       </c>
-      <c r="C60" s="2">
-        <f t="shared" si="21"/>
+      <c r="C63" s="2">
+        <f>C13+S38</f>
         <v>4892</v>
       </c>
-      <c r="D60" s="2">
-        <f t="shared" si="23"/>
+      <c r="D63" s="2">
+        <f>D13</f>
         <v>219</v>
       </c>
-      <c r="E60" s="2">
-        <f t="shared" si="23"/>
+      <c r="E63" s="2">
+        <f>E13</f>
         <v>2590</v>
       </c>
-      <c r="F60" s="2">
-        <f t="shared" si="21"/>
+      <c r="F63" s="2">
+        <f>F13+V38</f>
         <v>660</v>
       </c>
-      <c r="G60" s="2">
-        <f t="shared" si="21"/>
+      <c r="G63" s="2">
+        <f>G13+W38</f>
         <v>353</v>
       </c>
-      <c r="H60" s="2">
-        <f t="shared" si="21"/>
+      <c r="H63" s="2">
+        <f>H13+X38</f>
         <v>3547</v>
       </c>
-      <c r="I60" s="2">
-        <f t="shared" si="24"/>
+      <c r="I63" s="2">
+        <f>I13</f>
         <v>1064</v>
       </c>
-      <c r="J60" s="2">
-        <f t="shared" si="21"/>
+      <c r="J63" s="2">
+        <f>J13+Z38</f>
         <v>13578</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>2004</v>
       </c>
-      <c r="B61" s="2">
-        <f t="shared" si="22"/>
+      <c r="B64" s="2">
+        <f>B14+R39</f>
         <v>216</v>
       </c>
-      <c r="C61" s="2">
-        <f t="shared" si="21"/>
+      <c r="C64" s="2">
+        <f>C14+S39</f>
         <v>4532</v>
       </c>
-      <c r="D61" s="2">
-        <f t="shared" si="23"/>
+      <c r="D64" s="2">
+        <f>D14</f>
         <v>258</v>
       </c>
-      <c r="E61" s="2">
-        <f t="shared" si="23"/>
+      <c r="E64" s="2">
+        <f>E14</f>
         <v>2633</v>
       </c>
-      <c r="F61" s="2">
-        <f t="shared" si="21"/>
+      <c r="F64" s="2">
+        <f>F14+V39</f>
         <v>673</v>
       </c>
-      <c r="G61" s="2">
-        <f t="shared" si="21"/>
+      <c r="G64" s="2">
+        <f>G14+W39</f>
         <v>309</v>
       </c>
-      <c r="H61" s="2">
-        <f t="shared" si="21"/>
+      <c r="H64" s="2">
+        <f>H14+X39</f>
         <v>3029</v>
       </c>
-      <c r="I61" s="2">
-        <f t="shared" si="24"/>
+      <c r="I64" s="2">
+        <f>I14</f>
         <v>1030</v>
       </c>
-      <c r="J61" s="2">
-        <f t="shared" si="21"/>
+      <c r="J64" s="2">
+        <f>J14+Z39</f>
         <v>12680</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B62" s="2">
-        <f t="shared" si="22"/>
-        <v>173</v>
-      </c>
-      <c r="C62" s="2">
-        <f t="shared" si="21"/>
-        <v>4158</v>
-      </c>
-      <c r="D62" s="2">
-        <f t="shared" si="23"/>
-        <v>255</v>
-      </c>
-      <c r="E62" s="2">
-        <f t="shared" si="23"/>
-        <v>2623</v>
-      </c>
-      <c r="F62" s="2">
-        <f t="shared" si="21"/>
-        <v>603</v>
-      </c>
-      <c r="G62" s="2">
-        <f t="shared" si="21"/>
-        <v>240</v>
-      </c>
-      <c r="H62" s="2">
-        <f t="shared" si="21"/>
-        <v>2961</v>
-      </c>
-      <c r="I62" s="2">
-        <f t="shared" si="21"/>
-        <v>1055</v>
-      </c>
-      <c r="J62" s="2">
-        <f t="shared" si="21"/>
-        <v>12068</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B63" s="2">
-        <f t="shared" si="22"/>
-        <v>192</v>
-      </c>
-      <c r="C63" s="2">
-        <f t="shared" si="21"/>
-        <v>4092</v>
-      </c>
-      <c r="D63" s="2">
-        <f t="shared" si="23"/>
-        <v>259</v>
-      </c>
-      <c r="E63" s="2">
-        <f t="shared" si="23"/>
-        <v>2821</v>
-      </c>
-      <c r="F63" s="2">
-        <f t="shared" si="21"/>
-        <v>570</v>
-      </c>
-      <c r="G63" s="2">
-        <f t="shared" si="21"/>
-        <v>271</v>
-      </c>
-      <c r="H63" s="2">
-        <f t="shared" si="21"/>
-        <v>2746</v>
-      </c>
-      <c r="I63" s="2">
-        <f t="shared" si="21"/>
-        <v>1106</v>
-      </c>
-      <c r="J63" s="2">
-        <f t="shared" si="21"/>
-        <v>12057</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B64" s="2">
-        <f t="shared" si="22"/>
-        <v>199</v>
-      </c>
-      <c r="C64" s="2">
-        <f t="shared" si="21"/>
-        <v>4131</v>
-      </c>
-      <c r="D64" s="2">
-        <f t="shared" si="21"/>
-        <v>229</v>
-      </c>
-      <c r="E64" s="2">
-        <f t="shared" ref="E64" si="25">E17</f>
-        <v>2647</v>
-      </c>
-      <c r="F64" s="2">
-        <f t="shared" si="21"/>
-        <v>627</v>
-      </c>
-      <c r="G64" s="2">
-        <f t="shared" si="21"/>
-        <v>273</v>
-      </c>
-      <c r="H64" s="2">
-        <f t="shared" si="21"/>
-        <v>2759</v>
-      </c>
-      <c r="I64" s="2">
-        <f t="shared" si="21"/>
-        <v>1235</v>
-      </c>
-      <c r="J64" s="2">
-        <f t="shared" si="21"/>
-        <v>12100</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" si="22"/>
-        <v>201</v>
+        <f>B15+R40</f>
+        <v>173</v>
       </c>
       <c r="C65" s="2">
-        <f t="shared" si="21"/>
-        <v>3425</v>
+        <f>C15+S40</f>
+        <v>4158</v>
       </c>
       <c r="D65" s="2">
-        <f t="shared" si="21"/>
-        <v>209</v>
+        <f>D15</f>
+        <v>255</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" ref="E65" si="26">E18</f>
-        <v>2602</v>
+        <f>E15</f>
+        <v>2623</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="21"/>
-        <v>611</v>
+        <f>F15+V40</f>
+        <v>603</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="21"/>
-        <v>349</v>
+        <f>G15+W40</f>
+        <v>240</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="21"/>
-        <v>2413</v>
+        <f>H15+X40</f>
+        <v>2961</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="21"/>
-        <v>1355</v>
+        <f>I15+Y40</f>
+        <v>1055</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="21"/>
-        <v>11165</v>
+        <f>J15+Z40</f>
+        <v>12068</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" si="22"/>
-        <v>163</v>
+        <f>B16+R41</f>
+        <v>192</v>
       </c>
       <c r="C66" s="2">
-        <f t="shared" si="21"/>
-        <v>4053</v>
+        <f>C16+S41</f>
+        <v>4092</v>
       </c>
       <c r="D66" s="2">
-        <f t="shared" si="21"/>
-        <v>168</v>
+        <f>D16</f>
+        <v>259</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" ref="E66" si="27">E19</f>
-        <v>2632</v>
+        <f>E16</f>
+        <v>2821</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="21"/>
-        <v>563</v>
+        <f>F16+V41</f>
+        <v>570</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="21"/>
-        <v>281</v>
+        <f>G16+W41</f>
+        <v>271</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="21"/>
-        <v>2500</v>
+        <f>H16+X41</f>
+        <v>2746</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="21"/>
-        <v>1138</v>
+        <f>I16+Y41</f>
+        <v>1106</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" si="21"/>
-        <v>11498</v>
+        <f>J16+Z41</f>
+        <v>12057</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" si="22"/>
-        <v>223</v>
+        <f>B17+R42</f>
+        <v>199</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" si="21"/>
-        <v>3979</v>
+        <f>C17+S42</f>
+        <v>4131</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" si="21"/>
-        <v>169</v>
+        <f>D17+T42</f>
+        <v>229</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ref="E67" si="28">E20</f>
-        <v>2671</v>
+        <f>E17</f>
+        <v>2647</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" si="21"/>
-        <v>534</v>
+        <f>F17+V42</f>
+        <v>627</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="21"/>
-        <v>267</v>
+        <f>G17+W42</f>
+        <v>273</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="21"/>
-        <v>2575</v>
+        <f>H17+X42</f>
+        <v>2759</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" si="21"/>
-        <v>1065</v>
+        <f>I17+Y42</f>
+        <v>1235</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" si="21"/>
-        <v>11483</v>
+        <f>J17+Z42</f>
+        <v>12100</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" si="22"/>
-        <v>189</v>
+        <f>B18+R43</f>
+        <v>201</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" ref="C68:C70" si="29">C21+S46</f>
-        <v>3372</v>
+        <f>C18+S43</f>
+        <v>3425</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68:D70" si="30">D21+T46</f>
-        <v>208</v>
+        <f>D18+T43</f>
+        <v>209</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" ref="E68" si="31">E21</f>
-        <v>2407</v>
+        <f>E18</f>
+        <v>2602</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" ref="F68:F70" si="32">F21+V46</f>
-        <v>474</v>
+        <f>F18+V43</f>
+        <v>611</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" ref="G68:G70" si="33">G21+W46</f>
-        <v>229</v>
+        <f>G18+W43</f>
+        <v>349</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" ref="H68:H70" si="34">H21+X46</f>
-        <v>2329</v>
+        <f>H18+X43</f>
+        <v>2413</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" ref="I68:I70" si="35">I21+Y46</f>
-        <v>1083</v>
+        <f>I18+Y43</f>
+        <v>1355</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" ref="J68:J70" si="36">J21+Z46</f>
-        <v>10291</v>
+        <f>J18+Z43</f>
+        <v>11165</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B69" s="2">
-        <f t="shared" si="22"/>
-        <v>147</v>
+        <f>B19+R44</f>
+        <v>163</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" si="29"/>
-        <v>3277</v>
+        <f>C19+S44</f>
+        <v>4053</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" si="30"/>
-        <v>191</v>
+        <f>D19+T44</f>
+        <v>168</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" ref="E69" si="37">E22</f>
-        <v>2384</v>
+        <f>E19</f>
+        <v>2632</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="32"/>
-        <v>487</v>
+        <f>F19+V44</f>
+        <v>563</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="33"/>
-        <v>262</v>
+        <f>G19+W44</f>
+        <v>281</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="34"/>
-        <v>2240</v>
+        <f>H19+X44</f>
+        <v>2500</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" si="35"/>
-        <v>1139</v>
+        <f>I19+Y44</f>
+        <v>1138</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="36"/>
-        <v>10127</v>
+        <f>J19+Z44</f>
+        <v>11498</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B70" s="2">
+        <f>B20+R45</f>
+        <v>223</v>
+      </c>
+      <c r="C70" s="2">
+        <f>C20+S45</f>
+        <v>3979</v>
+      </c>
+      <c r="D70" s="2">
+        <f>D20+T45</f>
+        <v>169</v>
+      </c>
+      <c r="E70" s="2">
+        <f>E20</f>
+        <v>2671</v>
+      </c>
+      <c r="F70" s="2">
+        <f>F20+V45</f>
+        <v>534</v>
+      </c>
+      <c r="G70" s="2">
+        <f>G20+W45</f>
+        <v>267</v>
+      </c>
+      <c r="H70" s="2">
+        <f>H20+X45</f>
+        <v>2575</v>
+      </c>
+      <c r="I70" s="2">
+        <f>I20+Y45</f>
+        <v>1065</v>
+      </c>
+      <c r="J70" s="2">
+        <f>J20+Z45</f>
+        <v>11483</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B71" s="2">
+        <f>B21+R46</f>
+        <v>189</v>
+      </c>
+      <c r="C71" s="2">
+        <f>C21+S46</f>
+        <v>3372</v>
+      </c>
+      <c r="D71" s="2">
+        <f>D21+T46</f>
+        <v>208</v>
+      </c>
+      <c r="E71" s="2">
+        <f>E21</f>
+        <v>2407</v>
+      </c>
+      <c r="F71" s="2">
+        <f>F21+V46</f>
+        <v>474</v>
+      </c>
+      <c r="G71" s="2">
+        <f>G21+W46</f>
+        <v>229</v>
+      </c>
+      <c r="H71" s="2">
+        <f>H21+X46</f>
+        <v>2329</v>
+      </c>
+      <c r="I71" s="2">
+        <f>I21+Y46</f>
+        <v>1083</v>
+      </c>
+      <c r="J71" s="2">
+        <f>J21+Z46</f>
+        <v>10291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B72" s="2">
+        <f>B22+R47</f>
+        <v>147</v>
+      </c>
+      <c r="C72" s="2">
+        <f>C22+S47</f>
+        <v>3277</v>
+      </c>
+      <c r="D72" s="2">
+        <f>D22+T47</f>
+        <v>191</v>
+      </c>
+      <c r="E72" s="2">
+        <f>E22</f>
+        <v>2384</v>
+      </c>
+      <c r="F72" s="2">
+        <f>F22+V47</f>
+        <v>487</v>
+      </c>
+      <c r="G72" s="2">
+        <f>G22+W47</f>
+        <v>262</v>
+      </c>
+      <c r="H72" s="2">
+        <f>H22+X47</f>
+        <v>2240</v>
+      </c>
+      <c r="I72" s="2">
+        <f>I22+Y47</f>
+        <v>1139</v>
+      </c>
+      <c r="J72" s="2">
+        <f>J22+Z47</f>
+        <v>10127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>2013</v>
       </c>
-      <c r="B70" s="2">
-        <f t="shared" si="22"/>
+      <c r="B73" s="2">
+        <f>B23+R48</f>
         <v>184</v>
       </c>
-      <c r="C70" s="2">
-        <f t="shared" si="29"/>
+      <c r="C73" s="2">
+        <f>C23+S48</f>
         <v>3550</v>
       </c>
-      <c r="D70" s="2">
-        <f t="shared" si="30"/>
+      <c r="D73" s="2">
+        <f>D23+T48</f>
         <v>257</v>
       </c>
-      <c r="E70" s="2">
-        <f t="shared" ref="E70" si="38">E23</f>
+      <c r="E73" s="2">
+        <f>E23</f>
         <v>2467</v>
       </c>
-      <c r="F70" s="2">
-        <f t="shared" si="32"/>
+      <c r="F73" s="2">
+        <f>F23+V48</f>
         <v>476</v>
       </c>
-      <c r="G70" s="2">
-        <f t="shared" si="33"/>
+      <c r="G73" s="2">
+        <f>G23+W48</f>
         <v>229</v>
       </c>
-      <c r="H70" s="2">
-        <f t="shared" si="34"/>
+      <c r="H73" s="2">
+        <f>H23+X48</f>
         <v>2277</v>
       </c>
-      <c r="I70" s="2">
-        <f t="shared" si="35"/>
+      <c r="I73" s="2">
+        <f>I23+Y48</f>
         <v>1278</v>
       </c>
-      <c r="J70" s="2">
-        <f t="shared" si="36"/>
+      <c r="J73" s="2">
+        <f>J23+Z48</f>
         <v>10718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B74" s="2">
+        <f>B24+R49</f>
+        <v>172</v>
+      </c>
+      <c r="C74" s="2">
+        <f>C24+S49</f>
+        <v>3591</v>
+      </c>
+      <c r="D74" s="2">
+        <f>D24+T49</f>
+        <v>189</v>
+      </c>
+      <c r="E74" s="2">
+        <f>E24</f>
+        <v>2648</v>
+      </c>
+      <c r="F74" s="2">
+        <f>F24+V49</f>
+        <v>509</v>
+      </c>
+      <c r="G74" s="2">
+        <f>G24+W49</f>
+        <v>234</v>
+      </c>
+      <c r="H74" s="2">
+        <f>H24+X49</f>
+        <v>2197</v>
+      </c>
+      <c r="I74" s="2">
+        <f>I24+Y49</f>
+        <v>1152</v>
+      </c>
+      <c r="J74" s="2">
+        <f>J24+Z49</f>
+        <v>10692</v>
       </c>
     </row>
   </sheetData>
